--- a/data-raw/reid.grass.xlsx
+++ b/data-raw/reid.grass.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F3590-D3D9-417C-8F42-88C6A5443F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9672"/>
+    <workbookView xWindow="3700" yWindow="2660" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drymatter" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,23 +405,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -437,7 +438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -454,7 +455,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>28</v>
       </c>
@@ -471,7 +472,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>56</v>
       </c>
@@ -488,7 +489,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>84</v>
       </c>
@@ -505,7 +506,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>112</v>
       </c>
@@ -522,7 +523,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>140</v>
       </c>
@@ -539,7 +540,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>168</v>
       </c>
@@ -556,7 +557,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>196</v>
       </c>
@@ -573,7 +574,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>224</v>
       </c>
@@ -590,7 +591,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>252</v>
       </c>
@@ -607,7 +608,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>280</v>
       </c>
@@ -624,7 +625,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>308</v>
       </c>
@@ -641,7 +642,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>336</v>
       </c>
@@ -658,7 +659,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>392</v>
       </c>
@@ -675,7 +676,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>448</v>
       </c>
@@ -692,7 +693,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>504</v>
       </c>
@@ -709,7 +710,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>560</v>
       </c>
@@ -726,7 +727,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>616</v>
       </c>
@@ -743,7 +744,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>672</v>
       </c>
@@ -760,7 +761,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>784</v>
       </c>
@@ -777,7 +778,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>896</v>
       </c>
@@ -794,7 +795,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -811,7 +812,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>28</v>
       </c>
@@ -828,7 +829,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>56</v>
       </c>
@@ -845,7 +846,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>84</v>
       </c>
@@ -862,7 +863,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>112</v>
       </c>
@@ -879,7 +880,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>140</v>
       </c>
@@ -896,7 +897,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>168</v>
       </c>
@@ -913,7 +914,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>196</v>
       </c>
@@ -930,7 +931,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>224</v>
       </c>
@@ -947,7 +948,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>252</v>
       </c>
@@ -964,7 +965,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>280</v>
       </c>
@@ -981,7 +982,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>308</v>
       </c>
@@ -998,7 +999,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>336</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>392</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>448</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>504</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>560</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>616</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>672</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>784</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>896</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>28</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>56</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>84</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>112</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>140</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>168</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>196</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>224</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>252</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>280</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>308</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>336</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>392</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>448</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>504</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>560</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>616</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>672</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>784</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>896</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>28</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>56</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>84</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>112</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>140</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>168</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>196</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>224</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>252</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>280</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>308</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>336</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>392</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>448</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>504</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>560</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>616</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>672</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>784</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>896</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>28</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>56</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>84</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>112</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>140</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>168</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>196</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>224</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>252</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>280</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>308</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>336</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>392</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>448</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>504</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>560</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>616</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>672</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>784</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>896</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>28</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>56</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>84</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>112</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>140</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>168</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>196</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>224</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>252</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>280</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>308</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>336</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>392</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>448</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>504</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>560</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>616</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>672</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>784</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>896</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>28</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>56</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>84</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>112</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>140</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>168</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>196</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>224</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>252</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>280</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>308</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>336</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>392</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>448</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>504</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>560</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>616</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>672</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>784</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>896</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>28</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>56</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>84</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>112</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>140</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>168</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>196</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>224</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>252</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>280</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>308</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>336</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>392</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>448</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>504</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>560</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>616</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>672</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>784</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>896</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>28</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>56</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>84</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>112</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>140</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>168</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>196</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>224</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>252</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>280</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>308</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>336</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>392</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>448</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>504</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>560</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>616</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>672</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>784</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>896</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>28</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>56</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>84</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>112</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>140</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>168</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>224</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>252</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>280</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>308</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>336</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>392</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>448</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>504</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>560</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>616</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>672</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>784</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>896</v>
       </c>
@@ -4013,14 +4014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
